--- a/dist/data/affixes.xlsx
+++ b/dist/data/affixes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Website\call-to-vocation\dist\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Website\vocation-reroll\dist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC6C9B2-4DEF-4B95-AAE4-23738824CF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D39C79-083F-4952-AA68-AA15895684BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5370" windowWidth="29040" windowHeight="15840" xr2:uid="{6247B11A-1EF8-4E7B-9B7C-32FF0BBEFC65}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="165">
   <si>
-    <t>C:\Users\Michael\Documents\Website\call-to-vocation\dist\data\affixes.json</t>
-  </si>
-  <si>
     <t>affix : String</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>baseType : String</t>
   </si>
   <si>
-    <t>itemType : String</t>
-  </si>
-  <si>
     <t>rollable : Boolean</t>
   </si>
   <si>
@@ -520,6 +514,12 @@
   </si>
   <si>
     <t>+#% chance to multiply stock by 1.7</t>
+  </si>
+  <si>
+    <t>gearSlot : String</t>
+  </si>
+  <si>
+    <t>C:\Users\Michael\Documents\Website\vocation-reroll\dist\data\affixes.json</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
   <dimension ref="A1:AX105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,62 +892,62 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -959,28 +959,28 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3">
         <v>1000</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1030,28 +1030,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <v>1000</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1101,28 +1101,28 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5">
         <v>1000</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1172,28 +1172,28 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H6">
         <v>1000</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -1243,28 +1243,28 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H7">
         <v>1000</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -1314,28 +1314,28 @@
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8">
         <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -1385,28 +1385,28 @@
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H9">
         <v>500</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D10">
         <v>22</v>
@@ -1456,28 +1456,28 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H10">
         <v>500</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -1527,28 +1527,28 @@
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D12">
         <v>28</v>
@@ -1598,28 +1598,28 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D13">
         <v>31</v>
@@ -1669,28 +1669,28 @@
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D14">
         <v>34</v>
@@ -1740,28 +1740,28 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D15">
         <v>37</v>
@@ -1811,28 +1811,28 @@
         <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>21</v>
@@ -1882,28 +1882,28 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H16">
         <v>1000</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>31</v>
@@ -1953,28 +1953,28 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H17">
         <v>1000</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2006,13 +2006,13 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>41</v>
@@ -2024,28 +2024,28 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H18">
         <v>1000</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>51</v>
@@ -2095,28 +2095,28 @@
         <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H19">
         <v>1000</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2148,13 +2148,13 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>61</v>
@@ -2166,28 +2166,28 @@
         <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20">
         <v>1000</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2219,13 +2219,13 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>71</v>
@@ -2237,28 +2237,28 @@
         <v>6</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H21">
         <v>500</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2290,13 +2290,13 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>81</v>
@@ -2308,28 +2308,28 @@
         <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H22">
         <v>500</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2361,13 +2361,13 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>91</v>
@@ -2379,28 +2379,28 @@
         <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H23">
         <v>500</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>101</v>
@@ -2450,28 +2450,28 @@
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H24">
         <v>100</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2503,13 +2503,13 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>111</v>
@@ -2521,28 +2521,28 @@
         <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25">
         <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2574,13 +2574,13 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>121</v>
@@ -2592,28 +2592,28 @@
         <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2645,13 +2645,13 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>131</v>
@@ -2663,28 +2663,28 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>141</v>
@@ -2734,28 +2734,28 @@
         <v>13</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2787,13 +2787,13 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -2805,28 +2805,28 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H29">
         <v>1000</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2858,13 +2858,13 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -2876,28 +2876,28 @@
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H30">
         <v>1000</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -2947,28 +2947,28 @@
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H31">
         <v>1000</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3000,13 +3000,13 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>21</v>
@@ -3018,28 +3018,28 @@
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H32">
         <v>1000</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3071,13 +3071,13 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>26</v>
@@ -3089,28 +3089,28 @@
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H33">
         <v>1000</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3142,13 +3142,13 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>31</v>
@@ -3160,28 +3160,28 @@
         <v>6</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H34">
         <v>500</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3213,13 +3213,13 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>36</v>
@@ -3231,28 +3231,28 @@
         <v>7</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H35">
         <v>500</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>41</v>
@@ -3302,28 +3302,28 @@
         <v>8</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H36">
         <v>500</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3355,13 +3355,13 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37">
         <v>46</v>
@@ -3373,28 +3373,28 @@
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H37">
         <v>100</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3426,13 +3426,13 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>51</v>
@@ -3444,28 +3444,28 @@
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H38">
         <v>20</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -3497,13 +3497,13 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>56</v>
@@ -3515,28 +3515,28 @@
         <v>11</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -3568,13 +3568,13 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>61</v>
@@ -3586,28 +3586,28 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -3639,13 +3639,13 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41">
         <v>66</v>
@@ -3657,28 +3657,28 @@
         <v>13</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3728,28 +3728,28 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H42">
         <v>1000</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3781,13 +3781,13 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -3799,28 +3799,28 @@
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H43">
         <v>500</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -3852,13 +3852,13 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -3870,28 +3870,28 @@
         <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H44">
         <v>100</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -3923,13 +3923,13 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -3941,28 +3941,28 @@
         <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H45">
         <v>50</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -3994,13 +3994,13 @@
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>13</v>
@@ -4012,28 +4012,28 @@
         <v>5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -4065,13 +4065,13 @@
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>16</v>
@@ -4083,28 +4083,28 @@
         <v>6</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -4136,13 +4136,13 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D48">
         <v>19</v>
@@ -4154,28 +4154,28 @@
         <v>7</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -4201,13 +4201,13 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49">
         <v>11</v>
@@ -4219,28 +4219,28 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H49">
         <v>1000</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -4273,13 +4273,13 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D50">
         <v>16</v>
@@ -4291,28 +4291,28 @@
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H50">
         <v>500</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -4345,13 +4345,13 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D51">
         <v>21</v>
@@ -4363,28 +4363,28 @@
         <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H51">
         <v>500</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M51" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -4417,13 +4417,13 @@
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D52">
         <v>26</v>
@@ -4435,28 +4435,28 @@
         <v>4</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H52">
         <v>100</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M52" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4489,13 +4489,13 @@
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D53">
         <v>31</v>
@@ -4507,28 +4507,28 @@
         <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H53">
         <v>50</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4561,13 +4561,13 @@
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D54">
         <v>36</v>
@@ -4579,28 +4579,28 @@
         <v>6</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4633,13 +4633,13 @@
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D55">
         <v>41</v>
@@ -4651,28 +4651,28 @@
         <v>7</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4705,13 +4705,13 @@
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D56">
         <v>46</v>
@@ -4723,28 +4723,28 @@
         <v>8</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4777,13 +4777,13 @@
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4795,28 +4795,28 @@
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H57">
         <v>1000</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M57" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -4867,28 +4867,28 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H58">
         <v>100</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -4921,13 +4921,13 @@
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -4939,28 +4939,28 @@
         <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M59" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -4993,13 +4993,13 @@
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -5011,28 +5011,28 @@
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H60">
         <v>1000</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M60" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -5065,13 +5065,13 @@
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D61">
         <v>11</v>
@@ -5083,28 +5083,28 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H61">
         <v>1000</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M61" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -5137,13 +5137,13 @@
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D62">
         <v>16</v>
@@ -5155,28 +5155,28 @@
         <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H62">
         <v>1000</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M62" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -5209,13 +5209,13 @@
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D63">
         <v>21</v>
@@ -5227,28 +5227,28 @@
         <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H63">
         <v>1000</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M63" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -5281,13 +5281,13 @@
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D64">
         <v>26</v>
@@ -5299,28 +5299,28 @@
         <v>5</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H64">
         <v>1000</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M64" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -5353,13 +5353,13 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D65">
         <v>31</v>
@@ -5371,28 +5371,28 @@
         <v>6</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H65">
         <v>500</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M65" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D66">
         <v>36</v>
@@ -5443,28 +5443,28 @@
         <v>7</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H66">
         <v>500</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M66" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -5497,13 +5497,13 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D67">
         <v>41</v>
@@ -5515,28 +5515,28 @@
         <v>8</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H67">
         <v>500</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M67" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -5569,13 +5569,13 @@
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D68">
         <v>46</v>
@@ -5587,28 +5587,28 @@
         <v>9</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H68">
         <v>100</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M68" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -5641,13 +5641,13 @@
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D69">
         <v>51</v>
@@ -5659,28 +5659,28 @@
         <v>10</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H69">
         <v>20</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M69" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5713,13 +5713,13 @@
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D70">
         <v>56</v>
@@ -5731,28 +5731,28 @@
         <v>11</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -5785,13 +5785,13 @@
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D71">
         <v>61</v>
@@ -5803,28 +5803,28 @@
         <v>12</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5857,13 +5857,13 @@
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D72">
         <v>66</v>
@@ -5875,28 +5875,28 @@
         <v>13</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5929,13 +5929,13 @@
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D73">
         <v>0.1</v>
@@ -5947,28 +5947,28 @@
         <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H73">
         <v>1000</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M73" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -6001,13 +6001,13 @@
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D74">
         <v>0.3</v>
@@ -6019,28 +6019,28 @@
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H74">
         <v>1000</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M74" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -6073,13 +6073,13 @@
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D75">
         <v>0.5</v>
@@ -6091,28 +6091,28 @@
         <v>3</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H75">
         <v>1000</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M75" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -6145,13 +6145,13 @@
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D76">
         <v>0.7</v>
@@ -6163,28 +6163,28 @@
         <v>4</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H76">
         <v>1000</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M76" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -6217,13 +6217,13 @@
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D77">
         <v>0.9</v>
@@ -6235,28 +6235,28 @@
         <v>5</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H77">
         <v>1000</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M77" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -6289,13 +6289,13 @@
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D78">
         <v>1.1000000000000001</v>
@@ -6307,28 +6307,28 @@
         <v>6</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H78">
         <v>500</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M78" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -6361,13 +6361,13 @@
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D79">
         <v>1.3</v>
@@ -6379,28 +6379,28 @@
         <v>7</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H79">
         <v>500</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M79" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -6433,13 +6433,13 @@
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D80">
         <v>1.5</v>
@@ -6451,28 +6451,28 @@
         <v>8</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H80">
         <v>500</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M80" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -6505,13 +6505,13 @@
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D81">
         <v>1.7</v>
@@ -6523,28 +6523,28 @@
         <v>9</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H81">
         <v>100</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M81" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -6577,13 +6577,13 @@
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D82">
         <v>1.9</v>
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H82">
         <v>20</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M82" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -6649,13 +6649,13 @@
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D83">
         <v>2.1</v>
@@ -6667,28 +6667,28 @@
         <v>11</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -6721,13 +6721,13 @@
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D84">
         <v>2.2999999999999998</v>
@@ -6739,28 +6739,28 @@
         <v>12</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -6793,13 +6793,13 @@
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D85">
         <v>2.5</v>
@@ -6811,28 +6811,28 @@
         <v>13</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -6865,13 +6865,13 @@
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D86">
         <v>16</v>
@@ -6883,28 +6883,28 @@
         <v>1</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H86">
         <v>1000</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M86" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -6937,13 +6937,13 @@
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D87">
         <v>21</v>
@@ -6955,28 +6955,28 @@
         <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H87">
         <v>1000</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M87" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -7009,13 +7009,13 @@
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D88">
         <v>26</v>
@@ -7027,28 +7027,28 @@
         <v>3</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H88">
         <v>1000</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M88" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -7081,13 +7081,13 @@
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D89">
         <v>31</v>
@@ -7099,28 +7099,28 @@
         <v>4</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H89">
         <v>1000</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M89" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -7153,13 +7153,13 @@
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D90">
         <v>36</v>
@@ -7171,28 +7171,28 @@
         <v>5</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H90">
         <v>1000</v>
       </c>
       <c r="I90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M90" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -7225,13 +7225,13 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D91">
         <v>41</v>
@@ -7243,28 +7243,28 @@
         <v>6</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H91">
         <v>500</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M91" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -7297,13 +7297,13 @@
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D92">
         <v>46</v>
@@ -7315,28 +7315,28 @@
         <v>7</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H92">
         <v>500</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M92" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -7369,13 +7369,13 @@
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D93">
         <v>51</v>
@@ -7387,28 +7387,28 @@
         <v>8</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H93">
         <v>500</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M93" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -7441,13 +7441,13 @@
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D94">
         <v>56</v>
@@ -7459,28 +7459,28 @@
         <v>9</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H94">
         <v>100</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M94" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -7513,13 +7513,13 @@
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D95">
         <v>61</v>
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H95">
         <v>20</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M95" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -7585,13 +7585,13 @@
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D96">
         <v>66</v>
@@ -7603,28 +7603,28 @@
         <v>11</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -7657,13 +7657,13 @@
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D97">
         <v>71</v>
@@ -7675,28 +7675,28 @@
         <v>12</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -7729,13 +7729,13 @@
     </row>
     <row r="98" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D98">
         <v>76</v>
@@ -7747,28 +7747,28 @@
         <v>13</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -7801,13 +7801,13 @@
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -7819,28 +7819,28 @@
         <v>1</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H99">
         <v>500</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M99" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7873,13 +7873,13 @@
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D100">
         <v>11</v>
@@ -7891,28 +7891,28 @@
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H100">
         <v>500</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M100" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -7945,13 +7945,13 @@
     </row>
     <row r="101" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D101">
         <v>16</v>
@@ -7963,28 +7963,28 @@
         <v>3</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H101">
         <v>200</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M101" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -8017,13 +8017,13 @@
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D102">
         <v>21</v>
@@ -8035,28 +8035,28 @@
         <v>4</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H102">
         <v>100</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M102" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -8089,13 +8089,13 @@
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D103">
         <v>26</v>
@@ -8107,28 +8107,28 @@
         <v>5</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -8161,13 +8161,13 @@
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D104">
         <v>31</v>
@@ -8179,28 +8179,28 @@
         <v>6</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -8233,13 +8233,13 @@
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D105">
         <v>36</v>
@@ -8251,28 +8251,28 @@
         <v>7</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
